--- a/Code/Results/Cases/Case_1_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.297955527527904</v>
+        <v>1.417691046532468</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03695307873704223</v>
+        <v>0.01380876848636348</v>
       </c>
       <c r="E2">
-        <v>3.032194908791013</v>
+        <v>1.389111181297864</v>
       </c>
       <c r="F2">
-        <v>0.4528406771694264</v>
+        <v>0.4492132562603928</v>
       </c>
       <c r="G2">
-        <v>0.0007580910975464317</v>
+        <v>0.002375239994871183</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.389320865811925</v>
+        <v>0.5052342562552781</v>
       </c>
       <c r="M2">
-        <v>0.8706968621245892</v>
+        <v>0.4051812384533235</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.164727694204544</v>
+        <v>1.411580729877301</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.013206793397671</v>
+        <v>1.330987364808379</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03239529795651919</v>
+        <v>0.01233916959299819</v>
       </c>
       <c r="E3">
-        <v>2.684786621036409</v>
+        <v>1.279515203907891</v>
       </c>
       <c r="F3">
-        <v>0.3993514181970284</v>
+        <v>0.4458500536640457</v>
       </c>
       <c r="G3">
-        <v>0.0007635323527733773</v>
+        <v>0.002378748244697512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.206600201609007</v>
+        <v>0.4459129144951248</v>
       </c>
       <c r="M3">
-        <v>0.7579663768774125</v>
+        <v>0.3694234055495826</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.034775386904698</v>
+        <v>1.415623111248635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.839527516645632</v>
+        <v>1.277840640828146</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02960814213000162</v>
+        <v>0.01143558936547606</v>
       </c>
       <c r="E4">
-        <v>2.472616201492031</v>
+        <v>1.21243476335448</v>
       </c>
       <c r="F4">
-        <v>0.3683589686255502</v>
+        <v>0.4443827027580838</v>
       </c>
       <c r="G4">
-        <v>0.0007669679832662851</v>
+        <v>0.002381014528822858</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.094865896435977</v>
+        <v>0.4093542267308692</v>
       </c>
       <c r="M4">
-        <v>0.6890973632706618</v>
+        <v>0.3474247125586203</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9612279320253947</v>
+        <v>1.420147486774567</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768991573381783</v>
+        <v>1.256206196152789</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02847454637265656</v>
+        <v>0.01106709253718208</v>
       </c>
       <c r="E5">
-        <v>2.386400157563372</v>
+        <v>1.185155240567099</v>
       </c>
       <c r="F5">
-        <v>0.3561529819863125</v>
+        <v>0.443934017012154</v>
       </c>
       <c r="G5">
-        <v>0.0007683926264042683</v>
+        <v>0.002381966361171865</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.049418701895775</v>
+        <v>0.3944229347165447</v>
       </c>
       <c r="M5">
-        <v>0.6611009554011673</v>
+        <v>0.3384495142387038</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9326896543296357</v>
+        <v>1.422501170409078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.757292189385595</v>
+        <v>1.252615241069549</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02828642816599825</v>
+        <v>0.01100588791616275</v>
       </c>
       <c r="E6">
-        <v>2.372097721053919</v>
+        <v>1.180628987074158</v>
       </c>
       <c r="F6">
-        <v>0.3541506125571487</v>
+        <v>0.4438684988853794</v>
       </c>
       <c r="G6">
-        <v>0.0007686306949843733</v>
+        <v>0.00238212612425661</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.041876576023412</v>
+        <v>0.3919416118537526</v>
       </c>
       <c r="M6">
-        <v>0.6564557637849688</v>
+        <v>0.336958561838415</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9280335982250563</v>
+        <v>1.422922692770129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.838575338413477</v>
+        <v>1.27754877591849</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02959284600253653</v>
+        <v>0.0114306207823347</v>
       </c>
       <c r="E7">
-        <v>2.47145252106364</v>
+        <v>1.212066630157409</v>
       </c>
       <c r="F7">
-        <v>0.3681926918988481</v>
+        <v>0.4443760485825194</v>
       </c>
       <c r="G7">
-        <v>0.0007669870959457891</v>
+        <v>0.002381027250682409</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.094252670875051</v>
+        <v>0.4091529921663835</v>
       </c>
       <c r="M7">
-        <v>0.6887195417870942</v>
+        <v>0.3473037121855569</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9608374278041651</v>
+        <v>1.420177169337194</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.199501702797932</v>
+        <v>1.387777398406342</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03537878242568837</v>
+        <v>0.01330232636778561</v>
       </c>
       <c r="E8">
-        <v>2.912145628690837</v>
+        <v>1.351280246533378</v>
       </c>
       <c r="F8">
-        <v>0.4339877006845398</v>
+        <v>0.4479289643344089</v>
       </c>
       <c r="G8">
-        <v>0.0007599480832508404</v>
+        <v>0.002376426404435525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.326205388094479</v>
+        <v>0.4848086715875013</v>
       </c>
       <c r="M8">
-        <v>0.8317430875571503</v>
+        <v>0.3928610883439063</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.118538808555172</v>
+        <v>1.412548490253982</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.919020356994736</v>
+        <v>1.604628083676971</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04684910398466968</v>
+        <v>0.0169617340021162</v>
       </c>
       <c r="E9">
-        <v>3.787524078065957</v>
+        <v>1.625844798539674</v>
       </c>
       <c r="F9">
-        <v>0.5797181934355322</v>
+        <v>0.4596852700100698</v>
       </c>
       <c r="G9">
-        <v>0.000746857226325411</v>
+        <v>0.002368290399221683</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.78617256346098</v>
+        <v>0.632076779787667</v>
       </c>
       <c r="M9">
-        <v>1.115935184916907</v>
+        <v>0.4818469686495064</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.484022906836486</v>
+        <v>1.413957237635515</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.458761233935206</v>
+        <v>1.764364128440263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05540684693325915</v>
+        <v>0.01964236346696424</v>
       </c>
       <c r="E10">
-        <v>4.440880550316791</v>
+        <v>1.828394740440842</v>
       </c>
       <c r="F10">
-        <v>0.7000479404524356</v>
+        <v>0.4713083121899331</v>
       </c>
       <c r="G10">
-        <v>0.0007376150882658712</v>
+        <v>0.002362847442738553</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.129537350831839</v>
+        <v>0.7395942045027937</v>
       </c>
       <c r="M10">
-        <v>1.32849374226366</v>
+        <v>0.5470059473961442</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.796990660310655</v>
+        <v>1.425199111847576</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.707702763523685</v>
+        <v>1.837122934134641</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05934264489058449</v>
+        <v>0.02085990210918709</v>
       </c>
       <c r="E11">
-        <v>4.741197940661749</v>
+        <v>1.920695385099521</v>
       </c>
       <c r="F11">
-        <v>0.7584320234596049</v>
+        <v>0.4772585141204502</v>
       </c>
       <c r="G11">
-        <v>0.000733477696682969</v>
+        <v>0.002360486156297314</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.287504401148823</v>
+        <v>0.7883571304505494</v>
       </c>
       <c r="M11">
-        <v>1.426383520864661</v>
+        <v>0.576600734221401</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.951546396176241</v>
+        <v>1.432578714682364</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.802551989269659</v>
+        <v>1.864688041249053</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06084055655119869</v>
+        <v>0.02132065662397054</v>
       </c>
       <c r="E12">
-        <v>4.855447525519338</v>
+        <v>1.955667831947153</v>
       </c>
       <c r="F12">
-        <v>0.78113593333957</v>
+        <v>0.4796081325998642</v>
       </c>
       <c r="G12">
-        <v>0.0007319192629306978</v>
+        <v>0.002359608405811746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.347630887252706</v>
+        <v>0.8068008533324189</v>
       </c>
       <c r="M12">
-        <v>1.46365843403899</v>
+        <v>0.5878007019829283</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.012061115859069</v>
+        <v>1.435702889118829</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.782097161285719</v>
+        <v>1.858750836489605</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06051759703048276</v>
+        <v>0.02122143872608007</v>
       </c>
       <c r="E13">
-        <v>4.830817074339109</v>
+        <v>1.948135034667416</v>
       </c>
       <c r="F13">
-        <v>0.7762185629670739</v>
+        <v>0.479097795141513</v>
       </c>
       <c r="G13">
-        <v>0.0007322545524411826</v>
+        <v>0.002359796716190076</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.334666969803948</v>
+        <v>0.8028296430134674</v>
       </c>
       <c r="M13">
-        <v>1.455620860880941</v>
+        <v>0.5853889011070237</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.99893575922934</v>
+        <v>1.435015317858046</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.715493884039006</v>
+        <v>1.839390476333108</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05946572009513318</v>
+        <v>0.0208978148535266</v>
       </c>
       <c r="E14">
-        <v>4.750586293058177</v>
+        <v>1.923572200121356</v>
       </c>
       <c r="F14">
-        <v>0.7602875279976331</v>
+        <v>0.4774498802686935</v>
       </c>
       <c r="G14">
-        <v>0.0007333493249103016</v>
+        <v>0.002360413614642344</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.292444547783418</v>
+        <v>0.7898749454001575</v>
       </c>
       <c r="M14">
-        <v>1.429445809347484</v>
+        <v>0.5775223027940086</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.956483701114223</v>
+        <v>1.432829112892506</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.67477587823231</v>
+        <v>1.827533362919553</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05882243627737438</v>
+        <v>0.02069954585874001</v>
       </c>
       <c r="E15">
-        <v>4.701513635612002</v>
+        <v>1.908529304257939</v>
       </c>
       <c r="F15">
-        <v>0.7506090423927674</v>
+        <v>0.4764530721663789</v>
       </c>
       <c r="G15">
-        <v>0.0007340209451861321</v>
+        <v>0.002360793618446978</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.266623864234703</v>
+        <v>0.7819369719644271</v>
       </c>
       <c r="M15">
-        <v>1.41344076223973</v>
+        <v>0.5727028732462855</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.930746879364904</v>
+        <v>1.431533048417464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.442568438308001</v>
+        <v>1.759611010136439</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05515060675869421</v>
+        <v>0.01956275388067752</v>
       </c>
       <c r="E16">
-        <v>4.421323145490874</v>
+        <v>1.822365650899997</v>
       </c>
       <c r="F16">
-        <v>0.6963116563293852</v>
+        <v>0.4709328836584064</v>
       </c>
       <c r="G16">
-        <v>0.0007378867134614312</v>
+        <v>0.002363004060260755</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.119253862980599</v>
+        <v>0.7364044202760169</v>
       </c>
       <c r="M16">
-        <v>1.322123322462048</v>
+        <v>0.5450709021988303</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.787154860629812</v>
+        <v>1.42476275975244</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.301051459883979</v>
+        <v>1.717966501878948</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05290993681914102</v>
+        <v>0.0188648632006263</v>
       </c>
       <c r="E17">
-        <v>4.250283902215784</v>
+        <v>1.769545940529468</v>
       </c>
       <c r="F17">
-        <v>0.6639838669694313</v>
+        <v>0.4677169697748695</v>
       </c>
       <c r="G17">
-        <v>0.0007402744780727994</v>
+        <v>0.002364389423947933</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.029336404550207</v>
+        <v>0.7084335425127222</v>
       </c>
       <c r="M17">
-        <v>1.266432553019811</v>
+        <v>0.5281075122017427</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.702346776275135</v>
+        <v>1.421192452429494</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.219969757574745</v>
+        <v>1.694022570718971</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05162510414503885</v>
+        <v>0.01846327840129902</v>
       </c>
       <c r="E18">
-        <v>4.152193358796865</v>
+        <v>1.739180627951953</v>
       </c>
       <c r="F18">
-        <v>0.6457282545036946</v>
+        <v>0.465929583855285</v>
       </c>
       <c r="G18">
-        <v>0.0007416542403291258</v>
+        <v>0.002365197053584125</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.977781212129713</v>
+        <v>0.6923316012133967</v>
       </c>
       <c r="M18">
-        <v>1.234511000813001</v>
+        <v>0.518346270386985</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.654698854532143</v>
+        <v>1.419351924756143</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.19256841346737</v>
+        <v>1.685917112632978</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05119072048029238</v>
+        <v>0.01832727925868483</v>
       </c>
       <c r="E19">
-        <v>4.119028541613005</v>
+        <v>1.72890214894116</v>
       </c>
       <c r="F19">
-        <v>0.6396033077334238</v>
+        <v>0.4653350763402102</v>
       </c>
       <c r="G19">
-        <v>0.0007421225384192098</v>
+        <v>0.002365472361208263</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.960351960129174</v>
+        <v>0.6868774024024162</v>
       </c>
       <c r="M19">
-        <v>1.223720871464664</v>
+        <v>0.5150405432449929</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.638753628256239</v>
+        <v>1.418765221407909</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.316082947067514</v>
+        <v>1.722398715420297</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05314804281032082</v>
+        <v>0.01893917333703143</v>
       </c>
       <c r="E20">
-        <v>4.268461099202682</v>
+        <v>1.775167137278004</v>
       </c>
       <c r="F20">
-        <v>0.6673896936786008</v>
+        <v>0.4680528512067497</v>
       </c>
       <c r="G20">
-        <v>0.0007400196448968898</v>
+        <v>0.002364240832073372</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.038891037563417</v>
+        <v>0.7114125259364812</v>
       </c>
       <c r="M20">
-        <v>1.272349277730768</v>
+        <v>0.5299137460897612</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.711256012386968</v>
+        <v>1.421550442933352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.735040363462701</v>
+        <v>1.845076737196507</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05977446637161421</v>
+        <v>0.02099287942120753</v>
       </c>
       <c r="E21">
-        <v>4.774137063858404</v>
+        <v>1.93078637353284</v>
       </c>
       <c r="F21">
-        <v>0.7649501056372259</v>
+        <v>0.4779312876741528</v>
       </c>
       <c r="G21">
-        <v>0.0007330275494420203</v>
+        <v>0.002360231971683722</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.304837488256794</v>
+        <v>0.7936806483996008</v>
       </c>
       <c r="M21">
-        <v>1.437128170108593</v>
+        <v>0.5798331037029953</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.968896948893473</v>
+        <v>1.433462275943185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.012285368523237</v>
+        <v>1.925329009452639</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06414975293178315</v>
+        <v>0.02233332829308665</v>
       </c>
       <c r="E22">
-        <v>5.107734727123955</v>
+        <v>2.032609034598835</v>
       </c>
       <c r="F22">
-        <v>0.8322187523705793</v>
+        <v>0.4849498518904483</v>
       </c>
       <c r="G22">
-        <v>0.0007285055199990386</v>
+        <v>0.002357707604953633</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.480472036904473</v>
+        <v>0.8473206743509252</v>
       </c>
       <c r="M22">
-        <v>1.546041033883668</v>
+        <v>0.6124177499826402</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.148994690280233</v>
+        <v>1.443170769478428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.863968224020709</v>
+        <v>1.882490179271429</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06181001129530728</v>
+        <v>0.02161807639537727</v>
       </c>
       <c r="E23">
-        <v>4.929374079877761</v>
+        <v>1.978254596100982</v>
       </c>
       <c r="F23">
-        <v>0.795969879419701</v>
+        <v>0.4811520884874625</v>
       </c>
       <c r="G23">
-        <v>0.0007309151164023295</v>
+        <v>0.002359046181705636</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.386546538609053</v>
+        <v>0.8187037751766013</v>
       </c>
       <c r="M23">
-        <v>1.487788255281203</v>
+        <v>0.5950305049898361</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.051716720586512</v>
+        <v>1.437811887643733</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.309286351578123</v>
+        <v>1.720394917687258</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05304038473105521</v>
+        <v>0.01890557883736932</v>
       </c>
       <c r="E24">
-        <v>4.260242439976082</v>
+        <v>1.772625789539489</v>
       </c>
       <c r="F24">
-        <v>0.66584889661506</v>
+        <v>0.4679008077671085</v>
       </c>
       <c r="G24">
-        <v>0.0007401348330308144</v>
+        <v>0.002364307975650058</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.034570957271995</v>
+        <v>0.7100657932583658</v>
       </c>
       <c r="M24">
-        <v>1.269674030594544</v>
+        <v>0.5290971750251998</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.707224708782917</v>
+        <v>1.42138793506092</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.7227288459232</v>
+        <v>1.545890885390918</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04372753950783448</v>
+        <v>0.01597307603675802</v>
       </c>
       <c r="E25">
-        <v>3.549185863931655</v>
+        <v>1.551413601501253</v>
       </c>
       <c r="F25">
-        <v>0.538204698684055</v>
+        <v>0.4559853305767021</v>
       </c>
       <c r="G25">
-        <v>0.0007503281170804788</v>
+        <v>0.002370397117822135</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.660967662373537</v>
+        <v>0.5923554272453941</v>
       </c>
       <c r="M25">
-        <v>1.038509719081254</v>
+        <v>0.4578121307324565</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.378136146176104</v>
+        <v>1.411800159689363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_246/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.417691046532468</v>
+        <v>2.297955527527847</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01380876848636348</v>
+        <v>0.03695307873687881</v>
       </c>
       <c r="E2">
-        <v>1.389111181297864</v>
+        <v>3.032194908790956</v>
       </c>
       <c r="F2">
-        <v>0.4492132562603928</v>
+        <v>0.4528406771694264</v>
       </c>
       <c r="G2">
-        <v>0.002375239994871183</v>
+        <v>0.0007580910975103742</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5052342562552781</v>
+        <v>1.38932086581201</v>
       </c>
       <c r="M2">
-        <v>0.4051812384533235</v>
+        <v>0.8706968621245608</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.411580729877301</v>
+        <v>1.164727694204487</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.330987364808379</v>
+        <v>2.013206793397273</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01233916959299819</v>
+        <v>0.03239529795678919</v>
       </c>
       <c r="E3">
-        <v>1.279515203907891</v>
+        <v>2.684786621036437</v>
       </c>
       <c r="F3">
-        <v>0.4458500536640457</v>
+        <v>0.3993514181970355</v>
       </c>
       <c r="G3">
-        <v>0.002378748244697512</v>
+        <v>0.0007635323527169636</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4459129144951248</v>
+        <v>1.206600201609092</v>
       </c>
       <c r="M3">
-        <v>0.3694234055495826</v>
+        <v>0.7579663768773983</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.415623111248635</v>
+        <v>1.034775386904698</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.277840640828146</v>
+        <v>1.83952751664583</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01143558936547606</v>
+        <v>0.02960814212988083</v>
       </c>
       <c r="E4">
-        <v>1.21243476335448</v>
+        <v>2.472616201492002</v>
       </c>
       <c r="F4">
-        <v>0.4443827027580838</v>
+        <v>0.368358968625536</v>
       </c>
       <c r="G4">
-        <v>0.002381014528822858</v>
+        <v>0.0007669679832074105</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4093542267308692</v>
+        <v>1.094865896435664</v>
       </c>
       <c r="M4">
-        <v>0.3474247125586203</v>
+        <v>0.6890973632706618</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.420147486774567</v>
+        <v>0.9612279320254515</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.256206196152789</v>
+        <v>1.768991573382095</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01106709253718208</v>
+        <v>0.02847454637253577</v>
       </c>
       <c r="E5">
-        <v>1.185155240567099</v>
+        <v>2.386400157563358</v>
       </c>
       <c r="F5">
-        <v>0.443934017012154</v>
+        <v>0.3561529819863125</v>
       </c>
       <c r="G5">
-        <v>0.002381966361171865</v>
+        <v>0.0007683926264419208</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3944229347165447</v>
+        <v>1.04941870189549</v>
       </c>
       <c r="M5">
-        <v>0.3384495142387038</v>
+        <v>0.6611009554011957</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.422501170409078</v>
+        <v>0.9326896543296357</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.252615241069549</v>
+        <v>1.757292189385851</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01100588791616275</v>
+        <v>0.02828642816610483</v>
       </c>
       <c r="E6">
-        <v>1.180628987074158</v>
+        <v>2.372097721053848</v>
       </c>
       <c r="F6">
-        <v>0.4438684988853794</v>
+        <v>0.354150612557163</v>
       </c>
       <c r="G6">
-        <v>0.00238212612425661</v>
+        <v>0.0007686306949848594</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3919416118537526</v>
+        <v>1.041876576023697</v>
       </c>
       <c r="M6">
-        <v>0.336958561838415</v>
+        <v>0.6564557637849475</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.422922692770129</v>
+        <v>0.9280335982250278</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.27754877591849</v>
+        <v>1.83857533841342</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0114306207823347</v>
+        <v>0.02959284600265732</v>
       </c>
       <c r="E7">
-        <v>1.212066630157409</v>
+        <v>2.471452521063696</v>
       </c>
       <c r="F7">
-        <v>0.4443760485825194</v>
+        <v>0.3681926918988481</v>
       </c>
       <c r="G7">
-        <v>0.002381027250682409</v>
+        <v>0.0007669870958891549</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4091529921663835</v>
+        <v>1.094252670875107</v>
       </c>
       <c r="M7">
-        <v>0.3473037121855569</v>
+        <v>0.6887195417870515</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.420177169337194</v>
+        <v>0.9608374278041651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.387777398406342</v>
+        <v>2.199501702797704</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01330232636778561</v>
+        <v>0.03537878242568837</v>
       </c>
       <c r="E8">
-        <v>1.351280246533378</v>
+        <v>2.912145628690894</v>
       </c>
       <c r="F8">
-        <v>0.4479289643344089</v>
+        <v>0.4339877006845327</v>
       </c>
       <c r="G8">
-        <v>0.002376426404435525</v>
+        <v>0.0007599480832503408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4848086715875013</v>
+        <v>1.326205388094678</v>
       </c>
       <c r="M8">
-        <v>0.3928610883439063</v>
+        <v>0.8317430875571432</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.412548490253982</v>
+        <v>1.118538808555087</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.604628083676971</v>
+        <v>2.919020356995077</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0169617340021162</v>
+        <v>0.04684910398478337</v>
       </c>
       <c r="E9">
-        <v>1.625844798539674</v>
+        <v>3.787524078065928</v>
       </c>
       <c r="F9">
-        <v>0.4596852700100698</v>
+        <v>0.5797181934355393</v>
       </c>
       <c r="G9">
-        <v>0.002368290399221683</v>
+        <v>0.000746857226352001</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.632076779787667</v>
+        <v>1.786172563461065</v>
       </c>
       <c r="M9">
-        <v>0.4818469686495064</v>
+        <v>1.115935184916893</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.413957237635515</v>
+        <v>1.484022906836486</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.764364128440263</v>
+        <v>3.458761233935149</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01964236346696424</v>
+        <v>0.05540684693315967</v>
       </c>
       <c r="E10">
-        <v>1.828394740440842</v>
+        <v>4.440880550316848</v>
       </c>
       <c r="F10">
-        <v>0.4713083121899331</v>
+        <v>0.7000479404524498</v>
       </c>
       <c r="G10">
-        <v>0.002362847442738553</v>
+        <v>0.0007376150882946296</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7395942045027937</v>
+        <v>2.12953735083201</v>
       </c>
       <c r="M10">
-        <v>0.5470059473961442</v>
+        <v>1.32849374226366</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.425199111847576</v>
+        <v>1.796990660310655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.837122934134641</v>
+        <v>3.707702763522661</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02085990210918709</v>
+        <v>0.05934264489053476</v>
       </c>
       <c r="E11">
-        <v>1.920695385099521</v>
+        <v>4.741197940661664</v>
       </c>
       <c r="F11">
-        <v>0.4772585141204502</v>
+        <v>0.7584320234596191</v>
       </c>
       <c r="G11">
-        <v>0.002360486156297314</v>
+        <v>0.0007334776966570893</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7883571304505494</v>
+        <v>2.28750440114905</v>
       </c>
       <c r="M11">
-        <v>0.576600734221401</v>
+        <v>1.426383520864704</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.432578714682364</v>
+        <v>1.951546396176212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.864688041249053</v>
+        <v>3.802551989269659</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02132065662397054</v>
+        <v>0.06084055655102816</v>
       </c>
       <c r="E12">
-        <v>1.955667831947153</v>
+        <v>4.855447525519224</v>
       </c>
       <c r="F12">
-        <v>0.4796081325998642</v>
+        <v>0.7811359333395558</v>
       </c>
       <c r="G12">
-        <v>0.002359608405811746</v>
+        <v>0.00073191926295804</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8068008533324189</v>
+        <v>2.347630887252706</v>
       </c>
       <c r="M12">
-        <v>0.5878007019829283</v>
+        <v>1.46365843403899</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.435702889118829</v>
+        <v>2.012061115859069</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.858750836489605</v>
+        <v>3.782097161285037</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02122143872608007</v>
+        <v>0.06051759703059645</v>
       </c>
       <c r="E13">
-        <v>1.948135034667416</v>
+        <v>4.830817074338967</v>
       </c>
       <c r="F13">
-        <v>0.479097795141513</v>
+        <v>0.7762185629670881</v>
       </c>
       <c r="G13">
-        <v>0.002359796716190076</v>
+        <v>0.0007322545524405345</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8028296430134674</v>
+        <v>2.334666969803834</v>
       </c>
       <c r="M13">
-        <v>0.5853889011070237</v>
+        <v>1.455620860880913</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.435015317858046</v>
+        <v>1.99893575922934</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.839390476333108</v>
+        <v>3.715493884039233</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0208978148535266</v>
+        <v>0.05946572009507634</v>
       </c>
       <c r="E14">
-        <v>1.923572200121356</v>
+        <v>4.750586293058205</v>
       </c>
       <c r="F14">
-        <v>0.4774498802686935</v>
+        <v>0.7602875279976189</v>
       </c>
       <c r="G14">
-        <v>0.002360413614642344</v>
+        <v>0.0007333493249395943</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7898749454001575</v>
+        <v>2.292444547783447</v>
       </c>
       <c r="M14">
-        <v>0.5775223027940086</v>
+        <v>1.429445809347499</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.432829112892506</v>
+        <v>1.956483701114223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.827533362919553</v>
+        <v>3.674775878232538</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02069954585874001</v>
+        <v>0.05882243627750228</v>
       </c>
       <c r="E15">
-        <v>1.908529304257939</v>
+        <v>4.701513635612002</v>
       </c>
       <c r="F15">
-        <v>0.4764530721663789</v>
+        <v>0.7506090423927674</v>
       </c>
       <c r="G15">
-        <v>0.002360793618446978</v>
+        <v>0.0007340209451865091</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7819369719644271</v>
+        <v>2.266623864234788</v>
       </c>
       <c r="M15">
-        <v>0.5727028732462855</v>
+        <v>1.413440762239759</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.431533048417464</v>
+        <v>1.930746879364875</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.759611010136439</v>
+        <v>3.44256843830766</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01956275388067752</v>
+        <v>0.0551506067586871</v>
       </c>
       <c r="E16">
-        <v>1.822365650899997</v>
+        <v>4.42132314549076</v>
       </c>
       <c r="F16">
-        <v>0.4709328836584064</v>
+        <v>0.696311656329371</v>
       </c>
       <c r="G16">
-        <v>0.002363004060260755</v>
+        <v>0.0007378867134338613</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7364044202760169</v>
+        <v>2.119253862980912</v>
       </c>
       <c r="M16">
-        <v>0.5450709021988303</v>
+        <v>1.322123322462019</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.42476275975244</v>
+        <v>1.787154860629812</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.717966501878948</v>
+        <v>3.301051459883752</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0188648632006263</v>
+        <v>0.05290993681887812</v>
       </c>
       <c r="E17">
-        <v>1.769545940529468</v>
+        <v>4.250283902215841</v>
       </c>
       <c r="F17">
-        <v>0.4677169697748695</v>
+        <v>0.6639838669694456</v>
       </c>
       <c r="G17">
-        <v>0.002364389423947933</v>
+        <v>0.0007402744780479859</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7084335425127222</v>
+        <v>2.029336404550094</v>
       </c>
       <c r="M17">
-        <v>0.5281075122017427</v>
+        <v>1.26643255301984</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.421192452429494</v>
+        <v>1.702346776275135</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.694022570718971</v>
+        <v>3.219969757574461</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01846327840129902</v>
+        <v>0.05162510414520227</v>
       </c>
       <c r="E18">
-        <v>1.739180627951953</v>
+        <v>4.152193358796865</v>
       </c>
       <c r="F18">
-        <v>0.465929583855285</v>
+        <v>0.6457282545036804</v>
       </c>
       <c r="G18">
-        <v>0.002365197053584125</v>
+        <v>0.0007416542403574635</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6923316012133967</v>
+        <v>1.977781212129401</v>
       </c>
       <c r="M18">
-        <v>0.518346270386985</v>
+        <v>1.234511000812986</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.419351924756143</v>
+        <v>1.654698854532143</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.685917112632978</v>
+        <v>3.192568413467029</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01832727925868483</v>
+        <v>0.05119072048059792</v>
       </c>
       <c r="E19">
-        <v>1.72890214894116</v>
+        <v>4.119028541613005</v>
       </c>
       <c r="F19">
-        <v>0.4653350763402102</v>
+        <v>0.6396033077334096</v>
       </c>
       <c r="G19">
-        <v>0.002365472361208263</v>
+        <v>0.0007421225384480071</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6868774024024162</v>
+        <v>1.960351960129316</v>
       </c>
       <c r="M19">
-        <v>0.5150405432449929</v>
+        <v>1.223720871464693</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.418765221407909</v>
+        <v>1.638753628256126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.722398715420297</v>
+        <v>3.316082947067571</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01893917333703143</v>
+        <v>0.05314804281027108</v>
       </c>
       <c r="E20">
-        <v>1.775167137278004</v>
+        <v>4.268461099202653</v>
       </c>
       <c r="F20">
-        <v>0.4680528512067497</v>
+        <v>0.6673896936786292</v>
       </c>
       <c r="G20">
-        <v>0.002364240832073372</v>
+        <v>0.0007400196448958838</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7114125259364812</v>
+        <v>2.038891037563587</v>
       </c>
       <c r="M20">
-        <v>0.5299137460897612</v>
+        <v>1.272349277730726</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.421550442933352</v>
+        <v>1.71125601238694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.845076737196507</v>
+        <v>3.735040363463042</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02099287942120753</v>
+        <v>0.05977446637155737</v>
       </c>
       <c r="E21">
-        <v>1.93078637353284</v>
+        <v>4.774137063858319</v>
       </c>
       <c r="F21">
-        <v>0.4779312876741528</v>
+        <v>0.7649501056372401</v>
       </c>
       <c r="G21">
-        <v>0.002360231971683722</v>
+        <v>0.0007330275494130819</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7936806483996008</v>
+        <v>2.304837488256936</v>
       </c>
       <c r="M21">
-        <v>0.5798331037029953</v>
+        <v>1.437128170108608</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.433462275943185</v>
+        <v>1.968896948893473</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.925329009452639</v>
+        <v>4.01228536852409</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02233332829308665</v>
+        <v>0.06414975293178315</v>
       </c>
       <c r="E22">
-        <v>2.032609034598835</v>
+        <v>5.107734727124011</v>
       </c>
       <c r="F22">
-        <v>0.4849498518904483</v>
+        <v>0.8322187523705793</v>
       </c>
       <c r="G22">
-        <v>0.002357707604953633</v>
+        <v>0.0007285055200271731</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8473206743509252</v>
+        <v>2.4804720369047</v>
       </c>
       <c r="M22">
-        <v>0.6124177499826402</v>
+        <v>1.546041033883697</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.443170769478428</v>
+        <v>2.148994690280261</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.882490179271429</v>
+        <v>3.863968224020596</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02161807639537727</v>
+        <v>0.06181001129521491</v>
       </c>
       <c r="E23">
-        <v>1.978254596100982</v>
+        <v>4.929374079877846</v>
       </c>
       <c r="F23">
-        <v>0.4811520884874625</v>
+        <v>0.7959698794196726</v>
       </c>
       <c r="G23">
-        <v>0.002359046181705636</v>
+        <v>0.0007309151164298263</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8187037751766013</v>
+        <v>2.386546538609196</v>
       </c>
       <c r="M23">
-        <v>0.5950305049898361</v>
+        <v>1.487788255281245</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.437811887643733</v>
+        <v>2.051716720586512</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.720394917687258</v>
+        <v>3.309286351578578</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01890557883736932</v>
+        <v>0.053040384731176</v>
       </c>
       <c r="E24">
-        <v>1.772625789539489</v>
+        <v>4.260242439976139</v>
       </c>
       <c r="F24">
-        <v>0.4679008077671085</v>
+        <v>0.66584889661506</v>
       </c>
       <c r="G24">
-        <v>0.002364307975650058</v>
+        <v>0.0007401348330042246</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7100657932583658</v>
+        <v>2.034570957272308</v>
       </c>
       <c r="M24">
-        <v>0.5290971750251998</v>
+        <v>1.269674030594587</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.42138793506092</v>
+        <v>1.707224708782974</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.545890885390918</v>
+        <v>2.722728845922973</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01597307603675802</v>
+        <v>0.04372753950805475</v>
       </c>
       <c r="E25">
-        <v>1.551413601501253</v>
+        <v>3.549185863931683</v>
       </c>
       <c r="F25">
-        <v>0.4559853305767021</v>
+        <v>0.5382046986840621</v>
       </c>
       <c r="G25">
-        <v>0.002370397117822135</v>
+        <v>0.0007503281171026765</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5923554272453941</v>
+        <v>1.660967662373764</v>
       </c>
       <c r="M25">
-        <v>0.4578121307324565</v>
+        <v>1.03850971908124</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.411800159689363</v>
+        <v>1.378136146176104</v>
       </c>
     </row>
   </sheetData>
